--- a/biology/Botanique/Verticillium/Verticillium.xlsx
+++ b/biology/Botanique/Verticillium/Verticillium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Verticillium est un genre de champignons de la division des Ascomycota et de la famille des Plectosphaerellaceae.
 Le genre peut être réparti en trois groupes :
 mycopathogènes
-entomopathogènes[1],
-agents pathogènes des plantes et saprophytes[2] dont Verticillium dahliae et Verticillium albo-atrum qui causent des maladies de flétrissement (verticilliose ou « flétrissement verticillien ») économiquement importantes sur le coton, les tomates, les pommes de terre, aubergines, poivrons, ainsi que chez les plantes ligneuses ornementales.
+entomopathogènes,
+agents pathogènes des plantes et saprophytes dont Verticillium dahliae et Verticillium albo-atrum qui causent des maladies de flétrissement (verticilliose ou « flétrissement verticillien ») économiquement importantes sur le coton, les tomates, les pommes de terre, aubergines, poivrons, ainsi que chez les plantes ligneuses ornementales.
 Les symptômes sont semblables à ceux de la fusariose. La rotation des cultures, l'utilisation de variétés végétales résistantes et un labourage profond[réf. nécessaire], peuvent être utiles pour maîtriser la flétrissure verticillienne.
 </t>
         </is>
@@ -516,9 +528,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (2 septembre 2014)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (2 septembre 2014) :
 Verticillium aerugineum
 Verticillium agaricicola
 Verticillium albo-atrum
@@ -607,7 +621,7 @@
 Verticillium vilmorinii
 Verticillium vinosum
 Verticillium zaregamsianum
-Selon Index Fungorum                                      (2 septembre 2014)[4] :
+Selon Index Fungorum                                      (2 septembre 2014) :
 Verticillium aerugineum Speg. 1911
 Verticillium affine Corda 1837
 Verticillium africanum (Durieu &amp; Mont.) Sacc. 1886
@@ -740,12 +754,87 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Verticillium dahliae Kleb.
-C'est le responsable de la verticilliose du houblon.
-Verticillium lecanii Viegas
-Cette espèce de champignon a été décrite pour la première fois en 1861. Elle a une distribution mondiale grâce aux insectes. En horticulture et en agriculture, il est parfois utilisée comme un entomopathogène (pour infecter les insectes) pour lutter contre les insectes ravageurs comme les cochenilles, les acariens et les pucerons. C'est un bio-pesticide/bio-Insecticide qui est pulvérisé sur les insectes alors qu'ils se nourrissent des plantes. Les insectes sont infectés lorsqu'ils entrent en contact avec les spores fongiques collantes, qui ensuite se développent et envahissent le corps des insectes qu'ils dévorent de l'intérieur.
-Verticillium albo-atrum Reinke &amp; Berthold
-D'abord identifié en Allemagne en 1870 sur des pommes de terre, Verticillium albo-atrum est un champignon du sol responsable d’une maladie vasculaire couramment appelée « verticilliose ». L'action de ce champignon est souvent indissociable de celle de Verticillium dahliae.
+          <t>Verticillium dahliae Kleb.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est le responsable de la verticilliose du houblon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Verticillium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Verticillium</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Verticillium lecanii Viegas</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce de champignon a été décrite pour la première fois en 1861. Elle a une distribution mondiale grâce aux insectes. En horticulture et en agriculture, il est parfois utilisée comme un entomopathogène (pour infecter les insectes) pour lutter contre les insectes ravageurs comme les cochenilles, les acariens et les pucerons. C'est un bio-pesticide/bio-Insecticide qui est pulvérisé sur les insectes alors qu'ils se nourrissent des plantes. Les insectes sont infectés lorsqu'ils entrent en contact avec les spores fongiques collantes, qui ensuite se développent et envahissent le corps des insectes qu'ils dévorent de l'intérieur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Verticillium</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Verticillium</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Verticillium albo-atrum Reinke &amp; Berthold</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'abord identifié en Allemagne en 1870 sur des pommes de terre, Verticillium albo-atrum est un champignon du sol responsable d’une maladie vasculaire couramment appelée « verticilliose ». L'action de ce champignon est souvent indissociable de celle de Verticillium dahliae.
 Elle s'attaque à plus de 300 espèces différentes de plantes cultivées et peut persister comme un organisme saprophyte du sol pendant plus de 15 ans. Quand elle infecte les arbres ornementaux, comme les érables, les ormes, peuplier, frêne, hêtre, chêne, Catalpa et de nombreux autres, les premiers symptômes sont le flétrissement d'une partie de l'arbre au milieu de l'été. Une température moyenne de 21 à 24 °C favorise son développement.
 Le champignon s’attaque aux racines de l’arbre et remonte les vaisseaux du xylème puis gagne les rameaux en obstruant les canaux conducteurs de sève, d’où l'apparition de nécroses à certains endroits. L'infection peut prendre quelques années pour progresser vers le reste de l'arbre ou se déplacer rapidement. Il en résulte un dessèchement brutal de quelques branches, surtout en période chaude. Si on coupe la branche affectée, on note un brunissement caractéristique des tissus vasculaires au niveau de l'aubier qui laisse apparaître des veines verdâtres ou brunâtres.
 Chez les arbres fruitiers, l'infection est connue sous le nom de 'Black Heart' et est fréquente chez les abricotiers et parfois sur amandiers, pêchers, pruniers et avocatier. Ce champignon a également des effets sur des plantes herbacées (luzerne cultivée, chrysanthème, menthe, Lychnis) et des légumes (tomates, aubergines, gombo, rhubarbe) provoquant leur flétrissement et leur mort. L'identification peut être faite par la recherche de conidies unicellulaires, ronds à ovales qui se forment à l'extrémité des branches verticillées. Ils sont facilement séparés de la plante.
@@ -757,45 +846,82 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Verticillium</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Verticillium</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Apparition assez brutale de taches noires sur l’écorce. À la coupe, des traces brunes, les canaux de sève sont obstrués par le parasite. Des nécroses apparaissent sur le tronc.
 Des branches peuvent dépérir complètement : retrait de sève important ou, si l’arbre est vigoureux, il se forme un cal de cicatrisation et la sève trouve un autre chemin et peut englober toute la zone parasitée.
 Sur rhubarbe: les feuilles jaunissent les unes après les autres et meurent en quelques semaines, puis la plante disparaît pendant un mois.
 Sur fraisiers: les feuilles sèchent comme si elles manquaient d'eau. Les fraises mûrissent en restant petites, elles sont sèches et sans goût, donnant l'impression qu'il y a plus d'akènes que de pulpe.
-Traitement
-En cas d’attaque, traiter à l’aliette ou avec des produits à base d’oxychlorure de cuivre ou de sulfate de cuivre deux fois à quinze jours d’intervalle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Verticillium</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Verticillium</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Symptômes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En cas d’attaque, traiter à l’aliette ou avec des produits à base d’oxychlorure de cuivre ou de sulfate de cuivre deux fois à quinze jours d’intervalle.
 Un traitement thiophanate+méthyl+manèbe peut aussi s’avérer efficace.
 Les traitements préventifs peuvent freiner l'extension du champignon, mais il n'existe pas de traitement curatif. Les filaments du verticillium restent dans le sol de nombreuses années. Les outils (voire les roues des véhicules) les propagent par déplacement de terre. Les feuilles mortes par verticilliose ne doivent pas être mises au composteur, afin de ne pas disséminer encore plus le champignon.
 Tailler en automne les rameaux desséchés jusqu’au bois sain. Ne pas tailler les rameaux légèrement flétris car ils peuvent récupérer grâce à une fertilisation et un arrosage régulier.
 Lorsqu'un arbre est très atteint, mieux vaut l'éliminer par le feu afin d’éviter la propagation à d’autres arbres. Ne pas replanter d'espèces sensibles au même endroit.
 [réf. souhaitée]
 Traitement alternatif
-Dans le cadre d'une démarche allant au-delà du bio (non travail du sol), une solution consiste à combattre la verticilliose par mycorhization avec un autre champignon symbiotique comme le suggère une étude sur la mycorhization de l'olivier[5].
+Dans le cadre d'une démarche allant au-delà du bio (non travail du sol), une solution consiste à combattre la verticilliose par mycorhization avec un autre champignon symbiotique comme le suggère une étude sur la mycorhization de l'olivier.
 Celui-ci va avoir plusieurs actions, notamment occuper les portes d'entrées vierges du plant mais aussi synthétiser des molécules permettant à la plante de résister. (Il améliore aussi la résistance au stress hydrique et permet à la plante de capteur le P et K du sol, sans apport)
 La mise en application sur un pied d'aubergine fortement atteint dont le pied a été mycorhize avec glomus intraracides. Au moment du traitement celui-ci pressentait un rejet latéral ne faisant que quelques dizaines de centimètres mais sain.
 Ses racines ont pu être en contact avec les spores. Le mycélium a tout de même eu un effet sur le pied mère qui au bout d'une semaine est entré dans un état stable.
